--- a/uploads/excel/test.xlsx
+++ b/uploads/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,21 +185,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제가 좋아하는 타블로의 펀치라인:</t>
-  </si>
-  <si>
     <t>난 이세상의 밑바닥이 아닌 '밑받침'</t>
   </si>
   <si>
-    <t>요즘 꽂힌 노래!</t>
-  </si>
-  <si>
     <t>다이나믹듀오 - 꿀잼(youtube영상)</t>
   </si>
   <si>
-    <t>요즘 스윙스 믹스테잎이 핫하네요</t>
-  </si>
-  <si>
     <t>swings - 그릇의 차이</t>
   </si>
   <si>
@@ -210,10 +201,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
@@ -756,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -782,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.3">
@@ -808,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.3">
@@ -834,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
@@ -860,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -886,447 +873,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
+      <c r="C5" s="5">
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
       </c>
       <c r="D13" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
       </c>
       <c r="D25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1469,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1497,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1511,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1525,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1539,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1553,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1567,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -1581,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -1595,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -1609,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -1623,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -1637,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -1651,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -1665,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -1679,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -1693,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
@@ -1707,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
@@ -1721,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -1735,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -1749,7 +1660,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
@@ -1763,7 +1674,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -1777,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
@@ -1791,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5">
         <v>4</v>
@@ -1805,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
@@ -1819,7 +1730,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
@@ -1833,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -1847,7 +1758,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
@@ -1861,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5">
         <v>5</v>
@@ -1875,7 +1786,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
@@ -1889,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5">
         <v>5</v>
@@ -1903,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <v>6</v>
@@ -1917,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
@@ -1931,7 +1842,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5">
         <v>6</v>
@@ -1945,7 +1856,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5">
         <v>6</v>
@@ -1959,7 +1870,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5">
         <v>6</v>
@@ -1973,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5">
         <v>6</v>
@@ -1992,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2017,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2028,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2039,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2050,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2061,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2072,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>6</v>

--- a/uploads/excel/test.xlsx
+++ b/uploads/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png</t>
+    <t>https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png</t>
   </si>
 </sst>
 </file>
@@ -859,12 +859,12 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="H2" r:id="rId7" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="H3" r:id="rId8" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="H4" r:id="rId9" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="H5" r:id="rId10" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="H7" r:id="rId11" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="H6" r:id="rId12" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
+    <hyperlink ref="H2" r:id="rId7" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="H3" r:id="rId8" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="H4" r:id="rId9" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="H5" r:id="rId10" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="H7" r:id="rId11" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="H6" r:id="rId12" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1992,12 +1992,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="B7" r:id="rId5" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
-    <hyperlink ref="B6" r:id="rId6" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/upload_d4e6dcbdfeaeecd0dc00839b61848a1b.png"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="https://s3.ap-northeast-2.amazonaws.com/chuing/test/circle_profile/circle_profile.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
